--- a/input/business_input_data.xlsx
+++ b/input/business_input_data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1st step to trip to Mars" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Importantdata" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Important Business data that the developer grease monkeys should have no problem of importing to our BI tool</t>
+    <t xml:space="preserve">Important Business data that the developer should have no problem of importing to our BI tool</t>
   </si>
   <si>
     <t xml:space="preserve">Products</t>
@@ -64,101 +64,25 @@
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+  <fonts count="10">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -166,89 +90,53 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFCE181E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -256,23 +144,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,38 +169,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,7 +187,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,7 +195,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,54 +203,37 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -410,7 +245,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -426,7 +261,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -439,7 +274,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -453,16 +288,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.05"/>
   </cols>
   <sheetData>
@@ -471,20 +306,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -492,10 +324,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -503,23 +335,23 @@
       <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>44359</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="b">
-        <v>0</v>
+      <c r="B7" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -531,6 +363,7 @@
         <v>499.1235</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
